--- a/LayOut.xlsx
+++ b/LayOut.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jelly\Layout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jelly\LayoutA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EC70610D-FC0A-4986-AFFA-944F7CC4F137}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{857D2125-218B-44D2-85CB-2E5B780504BA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9010" activeTab="3" xr2:uid="{42A92719-B47D-4C79-B566-6942DCF14CFF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mlist" sheetId="1" r:id="rId1"/>
-    <sheet name="merchantdise" sheetId="2" r:id="rId2"/>
-    <sheet name="preprice(user)" sheetId="3" r:id="rId3"/>
-    <sheet name="order(user)" sheetId="6" r:id="rId4"/>
-    <sheet name="管理者後台" sheetId="4" r:id="rId5"/>
-    <sheet name="preprice(ad)" sheetId="5" r:id="rId6"/>
-    <sheet name="order(ad)" sheetId="7" r:id="rId7"/>
+    <sheet name="商品" sheetId="9" r:id="rId1"/>
+    <sheet name="mlist" sheetId="1" r:id="rId2"/>
+    <sheet name="merchantdise" sheetId="2" r:id="rId3"/>
+    <sheet name="preprice(user)" sheetId="3" r:id="rId4"/>
+    <sheet name="order(user)" sheetId="6" r:id="rId5"/>
+    <sheet name="管理者後台" sheetId="4" r:id="rId6"/>
+    <sheet name="preprice(ad)" sheetId="5" r:id="rId7"/>
+    <sheet name="order(ad)" sheetId="7" r:id="rId8"/>
+    <sheet name="預覽功能" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="110">
   <si>
     <t>HEADER</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -142,23 +144,6 @@
   </si>
   <si>
     <t>預約估價</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-       &lt;LIST&gt;
-*估價資料
-     *待估價
-     *已完成估價
-*訂單資料
-     *待處理之訂單
-     *已完成之訂單
-     *評價
-*商品管理
-    ()上架商品
-    ()修改商品
-    ()刪除商品
-*線上客服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -314,12 +299,268 @@
     <t>消費者付款資訊：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+       &lt;LIST&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>*估價資料
+     *待估價
+     *已完成估價</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+*訂單資料
+     *待處理之訂單
+     *已完成之訂單
+     *評價
+*商品管理
+    ()上架商品
+    ()修改商品
+    ()刪除商品
+*會員管理
+*線上客服</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+       &lt;LIST&gt;
+*估價資料
+     *待估價
+     *已完成估價
+*訂單資料
+     *待處理之訂單
+     *已完成之訂單
+     *評價
+*商品管理
+    ()上架商品
+    ()修改商品
+    ()刪除商品
+*會員管理
+*線上客服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>估價  搜尋預覽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單  搜尋預覽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員  搜尋預覽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品  搜尋預覽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>適用2~4坪</t>
+  </si>
+  <si>
+    <t>適用4~6坪</t>
+  </si>
+  <si>
+    <t>適用6~8坪</t>
+  </si>
+  <si>
+    <t>適用8~10坪</t>
+  </si>
+  <si>
+    <t>適用10~12坪</t>
+  </si>
+  <si>
+    <t>適用12~14坪</t>
+  </si>
+  <si>
+    <t>適用14~16坪</t>
+  </si>
+  <si>
+    <t>適用16~18坪</t>
+  </si>
+  <si>
+    <t>適用18~20坪</t>
+  </si>
+  <si>
+    <t>https://tw.buy.yahoo.com/gdsale/HERAN%E7%A6%BE%E8%81%AF-16-18%E5%9D%AA-%E8%AE%8A%E9%A0%BB%E4%B8%80%E5%B0%8D%E4%B8%80%E5%86%B7%E6%9A%96%E5%9E%8BHI-7608488.html?gg=0&amp;co_servername=GT_PLA_170401_ALL_z5&amp;gclid=CjwKCAjw1ZbaBRBUEiwA4VQCIQobHGVnAtYrqPwkFZPQvc8pWbFSKxREtE5v4bKuXkI6Nt59FWTLVBoC1oQQAvD_BwE</t>
+  </si>
+  <si>
+    <r>
+      <t>52,113</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>HERAN禾聯 16-18坪 變頻一對一冷暖型HI-G80H/HO-G80H</t>
+  </si>
+  <si>
+    <t>77,280 </t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=20245&amp;category_sn=1087</t>
+  </si>
+  <si>
+    <t>Panasonic 國際 PX系列冷暖變頻一對一分離式冷氣 CS-PX90BA2 / CU-PX90BHA2</t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=20246&amp;category_sn=1088</t>
+  </si>
+  <si>
+    <t>Panasonic 國際 PX系列冷暖變頻一對一分離式冷氣 CS-PX110BA2 / CU-PX110BHA2</t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=20085&amp;category_sn=1088</t>
+  </si>
+  <si>
+    <t>HITACHI 日立 冷暖變頻一對一分離式冷氣 RAS-110NX1 / RAC-110NX1</t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=19665&amp;category_sn=1086</t>
+  </si>
+  <si>
+    <t>DAIKIN 大金 變頻冷暖 一對一分離式冷氣 橫綱系列 RXM90RVLT / FTXM90RVLT</t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=19134&amp;category_sn=1086</t>
+  </si>
+  <si>
+    <t>TECO 東元 高效率 單冷 定頻 一對一 分離式冷氣 MA-GS90FC / MS-GS90FC</t>
+  </si>
+  <si>
+    <t>42,100 </t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=18758&amp;category_sn=1085</t>
+  </si>
+  <si>
+    <t>SANLUX 台灣三洋 時尚型單冷變頻一對一分離式冷氣 SAC-V86F / SAE-V86F</t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=19004&amp;category_sn=1085</t>
+  </si>
+  <si>
+    <t>HITACHI 日立 頂級型冷暖變頻一對一分離式冷氣 RAS-90NK / RAC-90NK</t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=19652&amp;category_sn=1084</t>
+  </si>
+  <si>
+    <t>DAIKIN 大金 變頻冷暖 一對一分離式冷氣 大關系列 RXV71RVLT / FTXV71RVLT</t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=18523&amp;category_sn=1084</t>
+  </si>
+  <si>
+    <t>HITACHI 日立 頂級型冷暖變頻一對一分離式冷氣 RAS-71NK / RAC-71NK</t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=18541&amp;category_sn=1083</t>
+  </si>
+  <si>
+    <t>HERAN 禾聯 頂級豪華型單冷定頻一對一分離式冷氣 HI-63B1 / HO-635A</t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=19662&amp;category_sn=1083</t>
+  </si>
+  <si>
+    <t>DAIKIN 大金 變頻冷暖 一對一分離式冷氣 橫綱系列 RXM60RVLT / FTXM60RVLT</t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=20079&amp;category_sn=1081</t>
+  </si>
+  <si>
+    <t>HITACHI 日立 冷暖變頻一對一分離式冷氣 RAS-28HK1 / RAC-28HK1</t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=19015&amp;category_sn=1080</t>
+  </si>
+  <si>
+    <t>CHIMEI 奇美 極光系列單冷變頻一對一分離式冷氣 RB-S22CF1 / RC-S22CF1</t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=19654&amp;category_sn=1080</t>
+  </si>
+  <si>
+    <t>DAIKIN 大金 變頻冷暖 一對一分離式冷氣 經典系列 RHF25RVLT / FTHF25RVLT</t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=20078&amp;category_sn=1080</t>
+  </si>
+  <si>
+    <t>HITACHI 日立 冷暖變頻一對一分離式冷氣 RAS-22HK1 / RAC-22HK1</t>
+  </si>
+  <si>
+    <t>27,590 </t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=18478&amp;category_sn=1082</t>
+  </si>
+  <si>
+    <t>SANLUX 台灣三洋 高效能右吹窗型冷氣 SA-R50FE</t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=20086&amp;category_sn=1081</t>
+  </si>
+  <si>
+    <t>DAIKIN 大金 冷暖變頻一對一分離式冷氣 RXM36SVLT / FTXM36SVLT</t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=19650&amp;category_sn=1082</t>
+  </si>
+  <si>
+    <t>DAIKIN 大金 變頻冷暖 一對一分離式冷氣 大關系列 RXV50RVLT / FTXV50RVLT</t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=18829&amp;category_sn=1081</t>
+  </si>
+  <si>
+    <t>Whirlpool 惠而浦 冷暖變頻一對一分離式冷氣 ATO-FT25DCB / ATI-FT25DCB</t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=11858&amp;category_sn=1080</t>
+  </si>
+  <si>
+    <t>TECO 東元 單冷定頻左吹窗型冷氣 MW20FL1</t>
+  </si>
+  <si>
+    <t>https://www.yk01.com.tw/product.php?pid_for_show=20068&amp;category_sn=1083</t>
+  </si>
+  <si>
+    <t>SANLUX 台灣三洋 單冷變頻一對一分離式冷氣 SAC-50V7 / SAE-50V7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -391,6 +632,44 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF595959"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -659,7 +938,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,6 +1181,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1216,7 +1513,338 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01300B2D-E7FC-4CD8-B5A3-62EBBEC7F3F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F890F88-E0B9-4EAA-BAC5-EB6B2DA5D21A}">
+  <dimension ref="A2:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.86328125" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" style="82"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="8" max="8" width="9.06640625" style="82"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="86">
+        <v>13990</v>
+      </c>
+      <c r="H2" s="82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="82" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="86">
+        <v>17900</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="86">
+        <v>49980</v>
+      </c>
+      <c r="H5" s="82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="86">
+        <v>27980</v>
+      </c>
+      <c r="H6" s="82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="86">
+        <v>25900</v>
+      </c>
+      <c r="H7" s="82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="86">
+        <v>31490</v>
+      </c>
+      <c r="H8" s="82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="86">
+        <v>24490</v>
+      </c>
+      <c r="H9" s="82" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="86">
+        <v>53980</v>
+      </c>
+      <c r="H10" s="82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="85">
+        <v>36590</v>
+      </c>
+      <c r="H11" s="82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="86">
+        <v>68980</v>
+      </c>
+      <c r="H12" s="82" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="86">
+        <v>32490</v>
+      </c>
+      <c r="H13" s="82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="86">
+        <v>65990</v>
+      </c>
+      <c r="H14" s="82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="86">
+        <v>69680</v>
+      </c>
+      <c r="H15" s="82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="86">
+        <v>86900</v>
+      </c>
+      <c r="H16" s="82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="86">
+        <v>49490</v>
+      </c>
+      <c r="H17" s="82" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="82" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="86">
+        <v>94980</v>
+      </c>
+      <c r="H19" s="82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="82" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="82" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="86">
+        <v>80590</v>
+      </c>
+      <c r="H22" s="82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="86">
+        <v>114900</v>
+      </c>
+      <c r="H23" s="82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -1226,26 +1854,26 @@
       <selection activeCell="E8" sqref="E8:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="6" width="8.90625" style="3"/>
-    <col min="7" max="7" width="4.90625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.1796875" style="3" customWidth="1"/>
-    <col min="9" max="10" width="8.90625" style="3"/>
-    <col min="11" max="11" width="4.6328125" style="3" customWidth="1"/>
-    <col min="12" max="13" width="8.90625" style="3"/>
-    <col min="14" max="14" width="4.453125" style="3" customWidth="1"/>
-    <col min="15" max="16" width="8.90625" style="3"/>
-    <col min="17" max="17" width="4.54296875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="19.54296875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="16.6328125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="2.08984375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="3.1796875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="8.90625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="8.90625" style="3"/>
+    <col min="5" max="6" width="8.86328125" style="3"/>
+    <col min="7" max="7" width="4.86328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.1328125" style="3" customWidth="1"/>
+    <col min="9" max="10" width="8.86328125" style="3"/>
+    <col min="11" max="11" width="4.59765625" style="3" customWidth="1"/>
+    <col min="12" max="13" width="8.86328125" style="3"/>
+    <col min="14" max="14" width="4.46484375" style="3" customWidth="1"/>
+    <col min="15" max="16" width="8.86328125" style="3"/>
+    <col min="17" max="17" width="4.46484375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="19.46484375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="16.59765625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="2.1328125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="3.1328125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="8.86328125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="8.86328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E1" s="38" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1896,7 @@
       <c r="V1" s="39"/>
       <c r="W1" s="40"/>
     </row>
-    <row r="2" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E2" s="41"/>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -1289,7 +1917,7 @@
       <c r="V2" s="42"/>
       <c r="W2" s="43"/>
     </row>
-    <row r="3" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E3" s="44"/>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
@@ -1310,7 +1938,7 @@
       <c r="V3" s="45"/>
       <c r="W3" s="46"/>
     </row>
-    <row r="4" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1331,7 +1959,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="38" t="s">
@@ -1354,7 +1982,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="44"/>
@@ -1375,7 +2003,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1396,7 +2024,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="5:23" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="5:23" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E8" s="47" t="s">
         <v>2</v>
       </c>
@@ -1419,7 +2047,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E9" s="49"/>
       <c r="F9" s="50"/>
       <c r="G9" s="2"/>
@@ -1440,7 +2068,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E10" s="49"/>
       <c r="F10" s="50"/>
       <c r="G10" s="2"/>
@@ -1461,7 +2089,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E11" s="49"/>
       <c r="F11" s="50"/>
       <c r="G11" s="2"/>
@@ -1482,7 +2110,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
       <c r="G12" s="2"/>
@@ -1503,7 +2131,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E13" s="49"/>
       <c r="F13" s="50"/>
       <c r="G13" s="2"/>
@@ -1524,7 +2152,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E14" s="49"/>
       <c r="F14" s="50"/>
       <c r="G14" s="2"/>
@@ -1545,7 +2173,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E15" s="49"/>
       <c r="F15" s="50"/>
       <c r="G15" s="2"/>
@@ -1566,7 +2194,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E16" s="49"/>
       <c r="F16" s="50"/>
       <c r="G16" s="2"/>
@@ -1587,7 +2215,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:23" x14ac:dyDescent="0.45">
       <c r="E17" s="49"/>
       <c r="F17" s="50"/>
       <c r="G17" s="2"/>
@@ -1608,7 +2236,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:23" x14ac:dyDescent="0.45">
       <c r="E18" s="49"/>
       <c r="F18" s="50"/>
       <c r="G18" s="2"/>
@@ -1629,7 +2257,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:23" x14ac:dyDescent="0.45">
       <c r="E19" s="49"/>
       <c r="F19" s="50"/>
       <c r="G19" s="2"/>
@@ -1650,7 +2278,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:23" x14ac:dyDescent="0.45">
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
       <c r="G20" s="2"/>
@@ -1671,7 +2299,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:23" x14ac:dyDescent="0.45">
       <c r="E21" s="49"/>
       <c r="F21" s="50"/>
       <c r="G21" s="2"/>
@@ -1692,7 +2320,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:23" x14ac:dyDescent="0.45">
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
       <c r="G22" s="2"/>
@@ -1713,7 +2341,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:23" x14ac:dyDescent="0.45">
       <c r="E23" s="49"/>
       <c r="F23" s="50"/>
       <c r="G23" s="2"/>
@@ -1734,7 +2362,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:23" x14ac:dyDescent="0.45">
       <c r="E24" s="49"/>
       <c r="F24" s="50"/>
       <c r="G24" s="2"/>
@@ -1755,7 +2383,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:23" x14ac:dyDescent="0.45">
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
       <c r="G25" s="2"/>
@@ -1776,7 +2404,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:23" x14ac:dyDescent="0.45">
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
       <c r="G26" s="2"/>
@@ -1797,7 +2425,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:23" x14ac:dyDescent="0.45">
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
       <c r="G27" s="2"/>
@@ -1818,7 +2446,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:23" x14ac:dyDescent="0.45">
       <c r="E28" s="49"/>
       <c r="F28" s="50"/>
       <c r="G28" s="2"/>
@@ -1839,7 +2467,7 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:23" x14ac:dyDescent="0.45">
       <c r="E29" s="51"/>
       <c r="F29" s="52"/>
       <c r="G29" s="2"/>
@@ -1860,7 +2488,7 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:23" x14ac:dyDescent="0.45">
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -1882,7 +2510,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:23" x14ac:dyDescent="0.45">
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -1904,7 +2532,7 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:23" x14ac:dyDescent="0.45">
       <c r="D32" s="7"/>
       <c r="E32" s="47" t="s">
         <v>3</v>
@@ -1928,7 +2556,7 @@
       <c r="V32" s="53"/>
       <c r="W32" s="48"/>
     </row>
-    <row r="33" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:23" x14ac:dyDescent="0.45">
       <c r="D33" s="7"/>
       <c r="E33" s="49"/>
       <c r="F33" s="54"/>
@@ -1950,7 +2578,7 @@
       <c r="V33" s="54"/>
       <c r="W33" s="50"/>
     </row>
-    <row r="34" spans="4:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:23" x14ac:dyDescent="0.45">
       <c r="D34" s="7"/>
       <c r="E34" s="51"/>
       <c r="F34" s="55"/>
@@ -1985,8 +2613,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D11387-C071-43BC-A2CD-407B7FCAEEA6}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -1996,25 +2624,25 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="6" width="8.90625" style="3"/>
-    <col min="7" max="7" width="4.90625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.1796875" style="3" customWidth="1"/>
-    <col min="9" max="10" width="8.90625" style="3"/>
-    <col min="11" max="11" width="4.6328125" style="3" customWidth="1"/>
-    <col min="12" max="13" width="8.90625" style="3"/>
-    <col min="14" max="14" width="4.453125" style="3" customWidth="1"/>
-    <col min="15" max="16" width="8.90625" style="3"/>
-    <col min="17" max="17" width="4.54296875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="19.54296875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="16.6328125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="2.08984375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="3.1796875" style="3" customWidth="1"/>
-    <col min="22" max="23" width="8.90625" style="3"/>
+    <col min="5" max="6" width="8.86328125" style="3"/>
+    <col min="7" max="7" width="4.86328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.1328125" style="3" customWidth="1"/>
+    <col min="9" max="10" width="8.86328125" style="3"/>
+    <col min="11" max="11" width="4.59765625" style="3" customWidth="1"/>
+    <col min="12" max="13" width="8.86328125" style="3"/>
+    <col min="14" max="14" width="4.46484375" style="3" customWidth="1"/>
+    <col min="15" max="16" width="8.86328125" style="3"/>
+    <col min="17" max="17" width="4.46484375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="19.46484375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="16.59765625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="2.1328125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="3.1328125" style="3" customWidth="1"/>
+    <col min="22" max="23" width="8.86328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E1" s="38" t="s">
         <v>0</v>
       </c>
@@ -2037,7 +2665,7 @@
       <c r="V1" s="39"/>
       <c r="W1" s="40"/>
     </row>
-    <row r="2" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E2" s="41"/>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -2058,7 +2686,7 @@
       <c r="V2" s="42"/>
       <c r="W2" s="43"/>
     </row>
-    <row r="3" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E3" s="44"/>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
@@ -2079,7 +2707,7 @@
       <c r="V3" s="45"/>
       <c r="W3" s="46"/>
     </row>
-    <row r="4" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -2100,7 +2728,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="38" t="s">
@@ -2123,7 +2751,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="44"/>
@@ -2144,7 +2772,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2165,7 +2793,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E8" s="47" t="s">
         <v>2</v>
       </c>
@@ -2188,7 +2816,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E9" s="49"/>
       <c r="F9" s="50"/>
       <c r="G9" s="2"/>
@@ -2209,7 +2837,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="5:23" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="5:23" ht="25.5" x14ac:dyDescent="0.45">
       <c r="E10" s="49"/>
       <c r="F10" s="50"/>
       <c r="G10" s="2"/>
@@ -2232,7 +2860,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E11" s="49"/>
       <c r="F11" s="50"/>
       <c r="G11" s="2"/>
@@ -2253,7 +2881,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
       <c r="G12" s="2"/>
@@ -2276,7 +2904,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E13" s="49"/>
       <c r="F13" s="50"/>
       <c r="G13" s="2"/>
@@ -2299,7 +2927,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E14" s="49"/>
       <c r="F14" s="50"/>
       <c r="G14" s="2"/>
@@ -2322,7 +2950,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E15" s="49"/>
       <c r="F15" s="50"/>
       <c r="G15" s="2"/>
@@ -2345,7 +2973,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E16" s="49"/>
       <c r="F16" s="50"/>
       <c r="G16" s="2"/>
@@ -2368,7 +2996,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E17" s="49"/>
       <c r="F17" s="50"/>
       <c r="G17" s="2"/>
@@ -2391,7 +3019,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E18" s="49"/>
       <c r="F18" s="50"/>
       <c r="G18" s="2"/>
@@ -2414,7 +3042,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="5:23" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="5:23" ht="25.5" x14ac:dyDescent="0.45">
       <c r="E19" s="49"/>
       <c r="F19" s="50"/>
       <c r="G19" s="2"/>
@@ -2437,7 +3065,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
       <c r="G20" s="2"/>
@@ -2457,7 +3085,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E21" s="49"/>
       <c r="F21" s="50"/>
       <c r="G21" s="2"/>
@@ -2480,7 +3108,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
       <c r="G22" s="2"/>
@@ -2501,7 +3129,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E23" s="49"/>
       <c r="F23" s="50"/>
       <c r="G23" s="2"/>
@@ -2522,7 +3150,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E24" s="49"/>
       <c r="F24" s="50"/>
       <c r="G24" s="2"/>
@@ -2543,7 +3171,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
       <c r="G25" s="2"/>
@@ -2564,7 +3192,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
       <c r="G26" s="2"/>
@@ -2585,7 +3213,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
       <c r="G27" s="2"/>
@@ -2606,7 +3234,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E28" s="51"/>
       <c r="F28" s="52"/>
       <c r="G28" s="2"/>
@@ -2627,7 +3255,7 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="9"/>
@@ -2648,7 +3276,7 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
@@ -2669,7 +3297,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E31" s="47" t="s">
         <v>3</v>
       </c>
@@ -2692,7 +3320,7 @@
       <c r="V31" s="53"/>
       <c r="W31" s="48"/>
     </row>
-    <row r="32" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E32" s="49"/>
       <c r="F32" s="54"/>
       <c r="G32" s="54"/>
@@ -2713,7 +3341,7 @@
       <c r="V32" s="54"/>
       <c r="W32" s="50"/>
     </row>
-    <row r="33" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E33" s="51"/>
       <c r="F33" s="55"/>
       <c r="G33" s="55"/>
@@ -2747,8 +3375,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DA908A-F748-4D32-90D2-97439FB3DEFF}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -2758,9 +3386,9 @@
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E1" s="38" t="s">
         <v>0</v>
       </c>
@@ -2783,7 +3411,7 @@
       <c r="V1" s="39"/>
       <c r="W1" s="40"/>
     </row>
-    <row r="2" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E2" s="41"/>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -2804,7 +3432,7 @@
       <c r="V2" s="42"/>
       <c r="W2" s="43"/>
     </row>
-    <row r="3" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E3" s="44"/>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
@@ -2825,7 +3453,7 @@
       <c r="V3" s="45"/>
       <c r="W3" s="46"/>
     </row>
-    <row r="4" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -2846,7 +3474,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
       <c r="G5" s="34"/>
@@ -2867,11 +3495,11 @@
       <c r="V5" s="12"/>
       <c r="W5" s="9"/>
     </row>
-    <row r="6" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E6" s="9"/>
       <c r="F6" s="13"/>
       <c r="G6" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
@@ -2890,7 +3518,7 @@
       <c r="V6" s="14"/>
       <c r="W6" s="9"/>
     </row>
-    <row r="7" spans="5:23" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="5:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E7" s="9"/>
       <c r="F7" s="13"/>
       <c r="G7" s="23"/>
@@ -2911,7 +3539,7 @@
       <c r="V7" s="14"/>
       <c r="W7" s="9"/>
     </row>
-    <row r="8" spans="5:23" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="5:23" ht="25.5" x14ac:dyDescent="0.45">
       <c r="E8" s="9"/>
       <c r="F8" s="13"/>
       <c r="G8" s="58" t="s">
@@ -2936,7 +3564,7 @@
       <c r="V8" s="14"/>
       <c r="W8" s="9"/>
     </row>
-    <row r="9" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E9" s="9"/>
       <c r="F9" s="13"/>
       <c r="G9" s="61"/>
@@ -2957,7 +3585,7 @@
       <c r="V9" s="14"/>
       <c r="W9" s="9"/>
     </row>
-    <row r="10" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E10" s="8"/>
       <c r="F10" s="5"/>
       <c r="G10" s="61"/>
@@ -2980,7 +3608,7 @@
       <c r="V10" s="14"/>
       <c r="W10" s="9"/>
     </row>
-    <row r="11" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E11" s="8"/>
       <c r="F11" s="5"/>
       <c r="G11" s="61"/>
@@ -3003,7 +3631,7 @@
       <c r="V11" s="14"/>
       <c r="W11" s="9"/>
     </row>
-    <row r="12" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E12" s="8"/>
       <c r="F12" s="5"/>
       <c r="G12" s="61"/>
@@ -3026,7 +3654,7 @@
       <c r="V12" s="14"/>
       <c r="W12" s="9"/>
     </row>
-    <row r="13" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E13" s="8"/>
       <c r="F13" s="5"/>
       <c r="G13" s="61"/>
@@ -3049,7 +3677,7 @@
       <c r="V13" s="14"/>
       <c r="W13" s="9"/>
     </row>
-    <row r="14" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E14" s="8"/>
       <c r="F14" s="5"/>
       <c r="G14" s="61"/>
@@ -3072,7 +3700,7 @@
       <c r="V14" s="14"/>
       <c r="W14" s="9"/>
     </row>
-    <row r="15" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E15" s="8"/>
       <c r="F15" s="5"/>
       <c r="G15" s="61"/>
@@ -3095,7 +3723,7 @@
       <c r="V15" s="14"/>
       <c r="W15" s="9"/>
     </row>
-    <row r="16" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E16" s="8"/>
       <c r="F16" s="5"/>
       <c r="G16" s="61"/>
@@ -3118,7 +3746,7 @@
       <c r="V16" s="14"/>
       <c r="W16" s="9"/>
     </row>
-    <row r="17" spans="5:23" ht="26" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:23" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E17" s="8"/>
       <c r="F17" s="5"/>
       <c r="G17" s="63"/>
@@ -3141,7 +3769,7 @@
       <c r="V17" s="14"/>
       <c r="W17" s="9"/>
     </row>
-    <row r="18" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E18" s="8"/>
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
@@ -3162,7 +3790,7 @@
       <c r="V18" s="14"/>
       <c r="W18" s="9"/>
     </row>
-    <row r="19" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E19" s="8"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
@@ -3185,7 +3813,7 @@
       <c r="V19" s="14"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E20" s="8"/>
       <c r="F20" s="5"/>
       <c r="G20" s="9"/>
@@ -3208,7 +3836,7 @@
       <c r="V20" s="14"/>
       <c r="W20" s="9"/>
     </row>
-    <row r="21" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E21" s="8"/>
       <c r="F21" s="5"/>
       <c r="G21" s="9"/>
@@ -3231,7 +3859,7 @@
       <c r="V21" s="14"/>
       <c r="W21" s="9"/>
     </row>
-    <row r="22" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E22" s="8"/>
       <c r="F22" s="5"/>
       <c r="G22" s="9"/>
@@ -3254,7 +3882,7 @@
       <c r="V22" s="14"/>
       <c r="W22" s="9"/>
     </row>
-    <row r="23" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E23" s="8"/>
       <c r="F23" s="5"/>
       <c r="G23" s="9"/>
@@ -3277,7 +3905,7 @@
       <c r="V23" s="14"/>
       <c r="W23" s="9"/>
     </row>
-    <row r="24" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E24" s="8"/>
       <c r="F24" s="5"/>
       <c r="G24" s="9"/>
@@ -3300,7 +3928,7 @@
       <c r="V24" s="14"/>
       <c r="W24" s="9"/>
     </row>
-    <row r="25" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E25" s="8"/>
       <c r="F25" s="5"/>
       <c r="G25" s="9"/>
@@ -3323,7 +3951,7 @@
       <c r="V25" s="14"/>
       <c r="W25" s="9"/>
     </row>
-    <row r="26" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E26" s="8"/>
       <c r="F26" s="5"/>
       <c r="G26" s="9"/>
@@ -3346,7 +3974,7 @@
       <c r="V26" s="14"/>
       <c r="W26" s="9"/>
     </row>
-    <row r="27" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E27" s="8"/>
       <c r="F27" s="5"/>
       <c r="G27" s="9"/>
@@ -3369,7 +3997,7 @@
       <c r="V27" s="14"/>
       <c r="W27" s="9"/>
     </row>
-    <row r="28" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E28" s="8"/>
       <c r="F28" s="5"/>
       <c r="G28" s="9"/>
@@ -3392,7 +4020,7 @@
       <c r="V28" s="14"/>
       <c r="W28" s="9"/>
     </row>
-    <row r="29" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E29" s="8"/>
       <c r="F29" s="5"/>
       <c r="G29" s="9"/>
@@ -3415,7 +4043,7 @@
       <c r="V29" s="14"/>
       <c r="W29" s="9"/>
     </row>
-    <row r="30" spans="5:23" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E30" s="8"/>
       <c r="F30" s="5"/>
       <c r="G30" s="9"/>
@@ -3436,7 +4064,7 @@
       <c r="V30" s="14"/>
       <c r="W30" s="9"/>
     </row>
-    <row r="31" spans="5:23" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E31" s="8"/>
       <c r="F31" s="5"/>
       <c r="G31" s="9"/>
@@ -3459,7 +4087,7 @@
       <c r="V31" s="14"/>
       <c r="W31" s="9"/>
     </row>
-    <row r="32" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E32" s="8"/>
       <c r="F32" s="5"/>
       <c r="G32" s="9"/>
@@ -3480,7 +4108,7 @@
       <c r="V32" s="14"/>
       <c r="W32" s="9"/>
     </row>
-    <row r="33" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E33" s="8"/>
       <c r="F33" s="5"/>
       <c r="G33" s="9"/>
@@ -3503,7 +4131,7 @@
       <c r="V33" s="14"/>
       <c r="W33" s="9"/>
     </row>
-    <row r="34" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E34" s="8"/>
       <c r="F34" s="5"/>
       <c r="G34" s="9"/>
@@ -3526,7 +4154,7 @@
       <c r="V34" s="14"/>
       <c r="W34" s="9"/>
     </row>
-    <row r="35" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="35" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E35" s="8"/>
       <c r="F35" s="6"/>
       <c r="G35" s="16"/>
@@ -3549,7 +4177,7 @@
       <c r="V35" s="17"/>
       <c r="W35" s="9"/>
     </row>
-    <row r="36" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="36" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="9"/>
@@ -3570,7 +4198,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="9"/>
@@ -3591,7 +4219,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="38" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E38" s="47" t="s">
         <v>3</v>
       </c>
@@ -3614,7 +4242,7 @@
       <c r="V38" s="53"/>
       <c r="W38" s="48"/>
     </row>
-    <row r="39" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="39" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E39" s="49"/>
       <c r="F39" s="54"/>
       <c r="G39" s="54"/>
@@ -3635,7 +4263,7 @@
       <c r="V39" s="54"/>
       <c r="W39" s="50"/>
     </row>
-    <row r="40" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="40" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E40" s="51"/>
       <c r="F40" s="55"/>
       <c r="G40" s="55"/>
@@ -3668,17 +4296,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B737455-A671-4AE1-8D04-A4F6770218C5}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="E1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E1" s="38" t="s">
         <v>0</v>
       </c>
@@ -3701,7 +4329,7 @@
       <c r="V1" s="39"/>
       <c r="W1" s="40"/>
     </row>
-    <row r="2" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E2" s="41"/>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -3722,7 +4350,7 @@
       <c r="V2" s="42"/>
       <c r="W2" s="43"/>
     </row>
-    <row r="3" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E3" s="44"/>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
@@ -3743,7 +4371,7 @@
       <c r="V3" s="45"/>
       <c r="W3" s="46"/>
     </row>
-    <row r="4" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -3764,7 +4392,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
       <c r="G5" s="34"/>
@@ -3785,11 +4413,11 @@
       <c r="V5" s="12"/>
       <c r="W5" s="9"/>
     </row>
-    <row r="6" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E6" s="9"/>
       <c r="F6" s="13"/>
       <c r="G6" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
@@ -3808,7 +4436,7 @@
       <c r="V6" s="14"/>
       <c r="W6" s="9"/>
     </row>
-    <row r="7" spans="5:23" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="5:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E7" s="9"/>
       <c r="F7" s="13"/>
       <c r="G7" s="23"/>
@@ -3829,7 +4457,7 @@
       <c r="V7" s="14"/>
       <c r="W7" s="9"/>
     </row>
-    <row r="8" spans="5:23" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="5:23" ht="25.5" x14ac:dyDescent="0.45">
       <c r="E8" s="9"/>
       <c r="F8" s="13"/>
       <c r="G8" s="58" t="s">
@@ -3854,7 +4482,7 @@
       <c r="V8" s="14"/>
       <c r="W8" s="9"/>
     </row>
-    <row r="9" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E9" s="9"/>
       <c r="F9" s="13"/>
       <c r="G9" s="61"/>
@@ -3875,7 +4503,7 @@
       <c r="V9" s="14"/>
       <c r="W9" s="9"/>
     </row>
-    <row r="10" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E10" s="8"/>
       <c r="F10" s="5"/>
       <c r="G10" s="61"/>
@@ -3898,7 +4526,7 @@
       <c r="V10" s="14"/>
       <c r="W10" s="9"/>
     </row>
-    <row r="11" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E11" s="8"/>
       <c r="F11" s="5"/>
       <c r="G11" s="61"/>
@@ -3921,7 +4549,7 @@
       <c r="V11" s="14"/>
       <c r="W11" s="9"/>
     </row>
-    <row r="12" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E12" s="8"/>
       <c r="F12" s="5"/>
       <c r="G12" s="61"/>
@@ -3944,7 +4572,7 @@
       <c r="V12" s="14"/>
       <c r="W12" s="9"/>
     </row>
-    <row r="13" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E13" s="8"/>
       <c r="F13" s="5"/>
       <c r="G13" s="61"/>
@@ -3967,7 +4595,7 @@
       <c r="V13" s="14"/>
       <c r="W13" s="9"/>
     </row>
-    <row r="14" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E14" s="8"/>
       <c r="F14" s="5"/>
       <c r="G14" s="61"/>
@@ -3990,7 +4618,7 @@
       <c r="V14" s="14"/>
       <c r="W14" s="9"/>
     </row>
-    <row r="15" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E15" s="8"/>
       <c r="F15" s="5"/>
       <c r="G15" s="61"/>
@@ -4013,7 +4641,7 @@
       <c r="V15" s="14"/>
       <c r="W15" s="9"/>
     </row>
-    <row r="16" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E16" s="8"/>
       <c r="F16" s="5"/>
       <c r="G16" s="61"/>
@@ -4036,7 +4664,7 @@
       <c r="V16" s="14"/>
       <c r="W16" s="9"/>
     </row>
-    <row r="17" spans="5:23" ht="26" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:23" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E17" s="8"/>
       <c r="F17" s="5"/>
       <c r="G17" s="63"/>
@@ -4059,7 +4687,7 @@
       <c r="V17" s="14"/>
       <c r="W17" s="9"/>
     </row>
-    <row r="18" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E18" s="8"/>
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
@@ -4080,7 +4708,7 @@
       <c r="V18" s="14"/>
       <c r="W18" s="9"/>
     </row>
-    <row r="19" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E19" s="8"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
@@ -4103,7 +4731,7 @@
       <c r="V19" s="14"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E20" s="8"/>
       <c r="F20" s="5"/>
       <c r="G20" s="9"/>
@@ -4126,7 +4754,7 @@
       <c r="V20" s="14"/>
       <c r="W20" s="9"/>
     </row>
-    <row r="21" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E21" s="8"/>
       <c r="F21" s="5"/>
       <c r="G21" s="9"/>
@@ -4149,7 +4777,7 @@
       <c r="V21" s="14"/>
       <c r="W21" s="9"/>
     </row>
-    <row r="22" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E22" s="8"/>
       <c r="F22" s="5"/>
       <c r="G22" s="9"/>
@@ -4172,7 +4800,7 @@
       <c r="V22" s="14"/>
       <c r="W22" s="9"/>
     </row>
-    <row r="23" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E23" s="8"/>
       <c r="F23" s="5"/>
       <c r="G23" s="9"/>
@@ -4195,7 +4823,7 @@
       <c r="V23" s="14"/>
       <c r="W23" s="9"/>
     </row>
-    <row r="24" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E24" s="8"/>
       <c r="F24" s="5"/>
       <c r="G24" s="9"/>
@@ -4218,7 +4846,7 @@
       <c r="V24" s="14"/>
       <c r="W24" s="9"/>
     </row>
-    <row r="25" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E25" s="8"/>
       <c r="F25" s="5"/>
       <c r="G25" s="9"/>
@@ -4241,7 +4869,7 @@
       <c r="V25" s="14"/>
       <c r="W25" s="9"/>
     </row>
-    <row r="26" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E26" s="8"/>
       <c r="F26" s="5"/>
       <c r="G26" s="9"/>
@@ -4264,7 +4892,7 @@
       <c r="V26" s="14"/>
       <c r="W26" s="9"/>
     </row>
-    <row r="27" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E27" s="8"/>
       <c r="F27" s="5"/>
       <c r="G27" s="9"/>
@@ -4287,7 +4915,7 @@
       <c r="V27" s="14"/>
       <c r="W27" s="9"/>
     </row>
-    <row r="28" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E28" s="8"/>
       <c r="F28" s="5"/>
       <c r="G28" s="9"/>
@@ -4310,7 +4938,7 @@
       <c r="V28" s="14"/>
       <c r="W28" s="9"/>
     </row>
-    <row r="29" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E29" s="8"/>
       <c r="F29" s="5"/>
       <c r="G29" s="9"/>
@@ -4320,7 +4948,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
@@ -4333,7 +4961,7 @@
       <c r="V29" s="14"/>
       <c r="W29" s="9"/>
     </row>
-    <row r="30" spans="5:23" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E30" s="8"/>
       <c r="F30" s="5"/>
       <c r="G30" s="9"/>
@@ -4354,7 +4982,7 @@
       <c r="V30" s="14"/>
       <c r="W30" s="9"/>
     </row>
-    <row r="31" spans="5:23" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E31" s="8"/>
       <c r="F31" s="5"/>
       <c r="G31" s="9"/>
@@ -4364,7 +4992,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N31" s="67"/>
       <c r="O31" s="67"/>
@@ -4377,7 +5005,7 @@
       <c r="V31" s="14"/>
       <c r="W31" s="9"/>
     </row>
-    <row r="32" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E32" s="8"/>
       <c r="F32" s="5"/>
       <c r="G32" s="9"/>
@@ -4398,7 +5026,7 @@
       <c r="V32" s="14"/>
       <c r="W32" s="9"/>
     </row>
-    <row r="33" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E33" s="8"/>
       <c r="F33" s="5"/>
       <c r="G33" s="9"/>
@@ -4419,7 +5047,7 @@
       <c r="V33" s="14"/>
       <c r="W33" s="9"/>
     </row>
-    <row r="34" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E34" s="8"/>
       <c r="F34" s="5"/>
       <c r="G34" s="9"/>
@@ -4440,7 +5068,7 @@
       <c r="V34" s="14"/>
       <c r="W34" s="9"/>
     </row>
-    <row r="35" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="35" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E35" s="8"/>
       <c r="F35" s="6"/>
       <c r="G35" s="16"/>
@@ -4461,7 +5089,7 @@
       <c r="V35" s="17"/>
       <c r="W35" s="9"/>
     </row>
-    <row r="36" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="36" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="9"/>
@@ -4482,7 +5110,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="9"/>
@@ -4503,7 +5131,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="38" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E38" s="47" t="s">
         <v>3</v>
       </c>
@@ -4526,7 +5154,7 @@
       <c r="V38" s="53"/>
       <c r="W38" s="48"/>
     </row>
-    <row r="39" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="39" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E39" s="49"/>
       <c r="F39" s="54"/>
       <c r="G39" s="54"/>
@@ -4547,7 +5175,7 @@
       <c r="V39" s="54"/>
       <c r="W39" s="50"/>
     </row>
-    <row r="40" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="40" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E40" s="51"/>
       <c r="F40" s="55"/>
       <c r="G40" s="55"/>
@@ -4580,20 +5208,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F56B86-5E47-415E-B777-E4CCA0CF0C73}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="E1:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E1" s="38" t="s">
         <v>0</v>
       </c>
@@ -4616,7 +5247,7 @@
       <c r="V1" s="39"/>
       <c r="W1" s="40"/>
     </row>
-    <row r="2" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E2" s="41"/>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -4637,7 +5268,7 @@
       <c r="V2" s="42"/>
       <c r="W2" s="43"/>
     </row>
-    <row r="3" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E3" s="44"/>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
@@ -4658,7 +5289,7 @@
       <c r="V3" s="45"/>
       <c r="W3" s="46"/>
     </row>
-    <row r="4" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -4679,7 +5310,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -4700,9 +5331,9 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="5:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E6" s="69" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F6" s="70"/>
       <c r="G6" s="1"/>
@@ -4723,7 +5354,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E7" s="71"/>
       <c r="F7" s="72"/>
       <c r="G7" s="1"/>
@@ -4744,7 +5375,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E8" s="71"/>
       <c r="F8" s="72"/>
       <c r="G8" s="1"/>
@@ -4765,7 +5396,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E9" s="71"/>
       <c r="F9" s="72"/>
       <c r="G9" s="1"/>
@@ -4786,7 +5417,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E10" s="71"/>
       <c r="F10" s="72"/>
       <c r="G10" s="1"/>
@@ -4807,7 +5438,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E11" s="71"/>
       <c r="F11" s="72"/>
       <c r="G11" s="1"/>
@@ -4828,7 +5459,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E12" s="71"/>
       <c r="F12" s="72"/>
       <c r="G12" s="1"/>
@@ -4849,7 +5480,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E13" s="71"/>
       <c r="F13" s="72"/>
       <c r="G13" s="1"/>
@@ -4870,7 +5501,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E14" s="71"/>
       <c r="F14" s="72"/>
       <c r="G14" s="1"/>
@@ -4891,7 +5522,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E15" s="71"/>
       <c r="F15" s="72"/>
       <c r="G15" s="1"/>
@@ -4912,7 +5543,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E16" s="71"/>
       <c r="F16" s="72"/>
       <c r="G16" s="1"/>
@@ -4933,7 +5564,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E17" s="71"/>
       <c r="F17" s="72"/>
       <c r="G17" s="1"/>
@@ -4954,7 +5585,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E18" s="71"/>
       <c r="F18" s="72"/>
       <c r="G18" s="1"/>
@@ -4975,7 +5606,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E19" s="71"/>
       <c r="F19" s="72"/>
       <c r="G19" s="1"/>
@@ -4996,7 +5627,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E20" s="71"/>
       <c r="F20" s="72"/>
       <c r="G20" s="1"/>
@@ -5017,7 +5648,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E21" s="71"/>
       <c r="F21" s="72"/>
       <c r="G21" s="1"/>
@@ -5038,7 +5669,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E22" s="71"/>
       <c r="F22" s="72"/>
       <c r="G22" s="1"/>
@@ -5059,7 +5690,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E23" s="71"/>
       <c r="F23" s="72"/>
       <c r="G23" s="1"/>
@@ -5080,7 +5711,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E24" s="71"/>
       <c r="F24" s="72"/>
       <c r="G24" s="1"/>
@@ -5101,7 +5732,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E25" s="71"/>
       <c r="F25" s="72"/>
       <c r="G25" s="1"/>
@@ -5122,7 +5753,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E26" s="71"/>
       <c r="F26" s="72"/>
       <c r="G26" s="1"/>
@@ -5143,7 +5774,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E27" s="71"/>
       <c r="F27" s="72"/>
       <c r="G27" s="1"/>
@@ -5164,7 +5795,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E28" s="71"/>
       <c r="F28" s="72"/>
       <c r="G28" s="1"/>
@@ -5185,9 +5816,9 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="E29" s="73"/>
-      <c r="F29" s="74"/>
+    <row r="29" spans="5:23" x14ac:dyDescent="0.45">
+      <c r="E29" s="71"/>
+      <c r="F29" s="72"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -5206,9 +5837,9 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+    <row r="30" spans="5:23" x14ac:dyDescent="0.45">
+      <c r="E30" s="71"/>
+      <c r="F30" s="72"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -5227,9 +5858,9 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+    <row r="31" spans="5:23" x14ac:dyDescent="0.45">
+      <c r="E31" s="71"/>
+      <c r="F31" s="72"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -5248,9 +5879,9 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+    <row r="32" spans="5:23" x14ac:dyDescent="0.45">
+      <c r="E32" s="71"/>
+      <c r="F32" s="72"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -5269,9 +5900,9 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+    <row r="33" spans="5:23" x14ac:dyDescent="0.45">
+      <c r="E33" s="71"/>
+      <c r="F33" s="72"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -5290,9 +5921,9 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="5:23" x14ac:dyDescent="0.4">
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+    <row r="34" spans="5:23" x14ac:dyDescent="0.45">
+      <c r="E34" s="73"/>
+      <c r="F34" s="74"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -5311,7 +5942,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="35" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -5332,7 +5963,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="5:23" x14ac:dyDescent="0.4">
+    <row r="36" spans="5:23" x14ac:dyDescent="0.45">
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -5356,28 +5987,29 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:W3"/>
-    <mergeCell ref="E6:F29"/>
+    <mergeCell ref="E6:F34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA77D059-A98E-4967-9AD7-EDB20788129A}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D1:AQ41"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="D6" sqref="D6:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="10.36328125" customWidth="1"/>
-    <col min="26" max="26" width="9.90625" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" customWidth="1"/>
+    <col min="26" max="26" width="9.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="1" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
@@ -5421,7 +6053,7 @@
       <c r="AP1" s="39"/>
       <c r="AQ1" s="40"/>
     </row>
-    <row r="2" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="2" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D2" s="41"/>
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
@@ -5461,7 +6093,7 @@
       <c r="AP2" s="42"/>
       <c r="AQ2" s="43"/>
     </row>
-    <row r="3" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="3" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D3" s="44"/>
       <c r="E3" s="45"/>
       <c r="F3" s="45"/>
@@ -5501,7 +6133,7 @@
       <c r="AP3" s="45"/>
       <c r="AQ3" s="46"/>
     </row>
-    <row r="4" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="4" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -5541,7 +6173,7 @@
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
     </row>
-    <row r="5" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="5" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -5581,9 +6213,9 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
     </row>
-    <row r="6" spans="4:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="4:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D6" s="69" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E6" s="70"/>
       <c r="F6" s="1"/>
@@ -5604,7 +6236,7 @@
       <c r="U6" s="27"/>
       <c r="V6" s="1"/>
       <c r="Y6" s="69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z6" s="70"/>
       <c r="AA6" s="1"/>
@@ -5625,13 +6257,13 @@
       <c r="AP6" s="27"/>
       <c r="AQ6" s="1"/>
     </row>
-    <row r="7" spans="4:43" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="4:43" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D7" s="71"/>
       <c r="E7" s="72"/>
       <c r="F7" s="1"/>
       <c r="G7" s="28"/>
       <c r="H7" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
@@ -5671,7 +6303,7 @@
       <c r="AP7" s="30"/>
       <c r="AQ7" s="1"/>
     </row>
-    <row r="8" spans="4:43" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="4:43" ht="6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D8" s="71"/>
       <c r="E8" s="72"/>
       <c r="F8" s="1"/>
@@ -5710,13 +6342,13 @@
       <c r="AP8" s="30"/>
       <c r="AQ8" s="1"/>
     </row>
-    <row r="9" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="9" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D9" s="71"/>
       <c r="E9" s="72"/>
       <c r="F9" s="1"/>
       <c r="G9" s="28"/>
       <c r="H9" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
@@ -5752,13 +6384,13 @@
       <c r="AP9" s="30"/>
       <c r="AQ9" s="1"/>
     </row>
-    <row r="10" spans="4:43" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="4:43" ht="25.5" x14ac:dyDescent="0.45">
       <c r="D10" s="71"/>
       <c r="E10" s="72"/>
       <c r="F10" s="1"/>
       <c r="G10" s="28"/>
       <c r="H10" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
@@ -5785,7 +6417,7 @@
       <c r="AG10" s="9"/>
       <c r="AH10" s="9"/>
       <c r="AI10" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9"/>
@@ -5796,13 +6428,13 @@
       <c r="AP10" s="30"/>
       <c r="AQ10" s="1"/>
     </row>
-    <row r="11" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="11" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D11" s="71"/>
       <c r="E11" s="72"/>
       <c r="F11" s="1"/>
       <c r="G11" s="28"/>
       <c r="H11" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
@@ -5838,13 +6470,13 @@
       <c r="AP11" s="30"/>
       <c r="AQ11" s="1"/>
     </row>
-    <row r="12" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="12" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D12" s="71"/>
       <c r="E12" s="72"/>
       <c r="F12" s="1"/>
       <c r="G12" s="28"/>
       <c r="H12" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
@@ -5882,13 +6514,13 @@
       <c r="AP12" s="30"/>
       <c r="AQ12" s="1"/>
     </row>
-    <row r="13" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="13" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D13" s="71"/>
       <c r="E13" s="72"/>
       <c r="F13" s="1"/>
       <c r="G13" s="28"/>
       <c r="H13" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
@@ -5926,13 +6558,13 @@
       <c r="AP13" s="30"/>
       <c r="AQ13" s="1"/>
     </row>
-    <row r="14" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="14" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D14" s="71"/>
       <c r="E14" s="72"/>
       <c r="F14" s="1"/>
       <c r="G14" s="28"/>
       <c r="H14" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
@@ -5970,13 +6602,13 @@
       <c r="AP14" s="30"/>
       <c r="AQ14" s="1"/>
     </row>
-    <row r="15" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="15" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D15" s="71"/>
       <c r="E15" s="72"/>
       <c r="F15" s="1"/>
       <c r="G15" s="28"/>
       <c r="H15" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
@@ -6014,13 +6646,13 @@
       <c r="AP15" s="30"/>
       <c r="AQ15" s="1"/>
     </row>
-    <row r="16" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="16" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D16" s="71"/>
       <c r="E16" s="72"/>
       <c r="F16" s="1"/>
       <c r="G16" s="28"/>
       <c r="H16" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
@@ -6058,13 +6690,13 @@
       <c r="AP16" s="30"/>
       <c r="AQ16" s="1"/>
     </row>
-    <row r="17" spans="4:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D17" s="71"/>
       <c r="E17" s="72"/>
       <c r="F17" s="1"/>
       <c r="G17" s="28"/>
       <c r="H17" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
@@ -6102,13 +6734,13 @@
       <c r="AP17" s="30"/>
       <c r="AQ17" s="1"/>
     </row>
-    <row r="18" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D18" s="71"/>
       <c r="E18" s="72"/>
       <c r="F18" s="1"/>
       <c r="G18" s="28"/>
       <c r="H18" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
@@ -6146,13 +6778,13 @@
       <c r="AP18" s="30"/>
       <c r="AQ18" s="1"/>
     </row>
-    <row r="19" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D19" s="71"/>
       <c r="E19" s="72"/>
       <c r="F19" s="1"/>
       <c r="G19" s="28"/>
       <c r="H19" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
@@ -6190,13 +6822,13 @@
       <c r="AP19" s="30"/>
       <c r="AQ19" s="1"/>
     </row>
-    <row r="20" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D20" s="71"/>
       <c r="E20" s="72"/>
       <c r="F20" s="1"/>
       <c r="G20" s="28"/>
       <c r="H20" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
@@ -6234,13 +6866,13 @@
       <c r="AP20" s="30"/>
       <c r="AQ20" s="1"/>
     </row>
-    <row r="21" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D21" s="71"/>
       <c r="E21" s="72"/>
       <c r="F21" s="1"/>
       <c r="G21" s="28"/>
       <c r="H21" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
@@ -6278,13 +6910,13 @@
       <c r="AP21" s="30"/>
       <c r="AQ21" s="1"/>
     </row>
-    <row r="22" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D22" s="71"/>
       <c r="E22" s="72"/>
       <c r="F22" s="1"/>
       <c r="G22" s="28"/>
       <c r="H22" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
@@ -6322,13 +6954,13 @@
       <c r="AP22" s="30"/>
       <c r="AQ22" s="1"/>
     </row>
-    <row r="23" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D23" s="71"/>
       <c r="E23" s="72"/>
       <c r="F23" s="1"/>
       <c r="G23" s="28"/>
       <c r="H23" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
@@ -6364,13 +6996,13 @@
       <c r="AP23" s="30"/>
       <c r="AQ23" s="1"/>
     </row>
-    <row r="24" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D24" s="71"/>
       <c r="E24" s="72"/>
       <c r="F24" s="1"/>
       <c r="G24" s="28"/>
       <c r="H24" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
@@ -6397,7 +7029,7 @@
       <c r="AG24" s="9"/>
       <c r="AH24" s="9"/>
       <c r="AI24" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ24" s="9"/>
       <c r="AK24" s="9"/>
@@ -6408,13 +7040,13 @@
       <c r="AP24" s="30"/>
       <c r="AQ24" s="1"/>
     </row>
-    <row r="25" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D25" s="71"/>
       <c r="E25" s="72"/>
       <c r="F25" s="1"/>
       <c r="G25" s="28"/>
       <c r="H25" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
@@ -6441,7 +7073,7 @@
       <c r="AG25" s="9"/>
       <c r="AH25" s="9"/>
       <c r="AI25" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ25" s="9"/>
       <c r="AK25" s="9"/>
@@ -6452,13 +7084,13 @@
       <c r="AP25" s="30"/>
       <c r="AQ25" s="1"/>
     </row>
-    <row r="26" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D26" s="71"/>
       <c r="E26" s="72"/>
       <c r="F26" s="1"/>
       <c r="G26" s="28"/>
       <c r="H26" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
@@ -6485,7 +7117,7 @@
       <c r="AG26" s="9"/>
       <c r="AH26" s="9"/>
       <c r="AI26" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ26" s="9"/>
       <c r="AK26" s="9"/>
@@ -6496,7 +7128,7 @@
       <c r="AP26" s="30"/>
       <c r="AQ26" s="1"/>
     </row>
-    <row r="27" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D27" s="71"/>
       <c r="E27" s="72"/>
       <c r="F27" s="1"/>
@@ -6527,7 +7159,7 @@
       <c r="AG27" s="9"/>
       <c r="AH27" s="9"/>
       <c r="AI27" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -6538,7 +7170,7 @@
       <c r="AP27" s="30"/>
       <c r="AQ27" s="1"/>
     </row>
-    <row r="28" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D28" s="71"/>
       <c r="E28" s="72"/>
       <c r="F28" s="1"/>
@@ -6569,7 +7201,7 @@
       <c r="AG28" s="9"/>
       <c r="AH28" s="9"/>
       <c r="AI28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
@@ -6580,7 +7212,7 @@
       <c r="AP28" s="30"/>
       <c r="AQ28" s="1"/>
     </row>
-    <row r="29" spans="4:43" ht="21.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:43" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D29" s="71"/>
       <c r="E29" s="72"/>
       <c r="F29" s="1"/>
@@ -6620,7 +7252,7 @@
       <c r="AP29" s="30"/>
       <c r="AQ29" s="1"/>
     </row>
-    <row r="30" spans="4:43" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:43" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D30" s="71"/>
       <c r="E30" s="72"/>
       <c r="F30" s="1"/>
@@ -6651,7 +7283,7 @@
       <c r="AG30" s="9"/>
       <c r="AH30" s="9"/>
       <c r="AI30" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AJ30" s="76"/>
       <c r="AK30" s="76"/>
@@ -6662,7 +7294,7 @@
       <c r="AP30" s="30"/>
       <c r="AQ30" s="1"/>
     </row>
-    <row r="31" spans="4:43" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:43" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D31" s="71"/>
       <c r="E31" s="72"/>
       <c r="F31" s="1"/>
@@ -6702,7 +7334,7 @@
       <c r="AP31" s="30"/>
       <c r="AQ31" s="1"/>
     </row>
-    <row r="32" spans="4:43" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:43" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D32" s="71"/>
       <c r="E32" s="72"/>
       <c r="F32" s="1"/>
@@ -6742,7 +7374,7 @@
       <c r="AP32" s="30"/>
       <c r="AQ32" s="1"/>
     </row>
-    <row r="33" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D33" s="71"/>
       <c r="E33" s="72"/>
       <c r="F33" s="1"/>
@@ -6782,7 +7414,7 @@
       <c r="AP33" s="30"/>
       <c r="AQ33" s="1"/>
     </row>
-    <row r="34" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D34" s="73"/>
       <c r="E34" s="74"/>
       <c r="F34" s="1"/>
@@ -6822,7 +7454,7 @@
       <c r="AP34" s="33"/>
       <c r="AQ34" s="1"/>
     </row>
-    <row r="35" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -6862,7 +7494,7 @@
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
     </row>
-    <row r="36" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -6902,7 +7534,7 @@
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
     </row>
-    <row r="37" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -6942,7 +7574,7 @@
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
     </row>
-    <row r="38" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -6982,7 +7614,7 @@
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
     </row>
-    <row r="39" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -7022,7 +7654,7 @@
       <c r="AP39" s="1"/>
       <c r="AQ39" s="1"/>
     </row>
-    <row r="40" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -7062,7 +7694,7 @@
       <c r="AP40" s="1"/>
       <c r="AQ40" s="1"/>
     </row>
-    <row r="41" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -7116,21 +7748,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DE7811-A031-462E-B85E-82E8B579D077}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="D1:AQ41"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AL28" sqref="AL28"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB37" sqref="AB37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="10.36328125" customWidth="1"/>
-    <col min="26" max="26" width="9.90625" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" customWidth="1"/>
+    <col min="26" max="26" width="9.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="1" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
@@ -7174,7 +7806,7 @@
       <c r="AP1" s="39"/>
       <c r="AQ1" s="40"/>
     </row>
-    <row r="2" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="2" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D2" s="41"/>
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
@@ -7214,7 +7846,7 @@
       <c r="AP2" s="42"/>
       <c r="AQ2" s="43"/>
     </row>
-    <row r="3" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="3" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D3" s="44"/>
       <c r="E3" s="45"/>
       <c r="F3" s="45"/>
@@ -7254,7 +7886,7 @@
       <c r="AP3" s="45"/>
       <c r="AQ3" s="46"/>
     </row>
-    <row r="4" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="4" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -7294,7 +7926,7 @@
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
     </row>
-    <row r="5" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="5" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -7334,9 +7966,9 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
     </row>
-    <row r="6" spans="4:43" ht="16.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="4:43" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D6" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="70"/>
       <c r="F6" s="1"/>
@@ -7357,7 +7989,7 @@
       <c r="U6" s="27"/>
       <c r="V6" s="1"/>
       <c r="Y6" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z6" s="70"/>
       <c r="AA6" s="1"/>
@@ -7378,13 +8010,13 @@
       <c r="AP6" s="27"/>
       <c r="AQ6" s="1"/>
     </row>
-    <row r="7" spans="4:43" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="4:43" ht="25.5" x14ac:dyDescent="0.45">
       <c r="D7" s="71"/>
       <c r="E7" s="72"/>
       <c r="F7" s="1"/>
       <c r="G7" s="28"/>
       <c r="H7" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
@@ -7424,7 +8056,7 @@
       <c r="AP7" s="30"/>
       <c r="AQ7" s="1"/>
     </row>
-    <row r="8" spans="4:43" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="4:43" ht="25.5" x14ac:dyDescent="0.45">
       <c r="D8" s="71"/>
       <c r="E8" s="72"/>
       <c r="F8" s="1"/>
@@ -7463,13 +8095,13 @@
       <c r="AP8" s="30"/>
       <c r="AQ8" s="1"/>
     </row>
-    <row r="9" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="9" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D9" s="71"/>
       <c r="E9" s="72"/>
       <c r="F9" s="1"/>
       <c r="G9" s="28"/>
       <c r="H9" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
@@ -7505,13 +8137,13 @@
       <c r="AP9" s="30"/>
       <c r="AQ9" s="1"/>
     </row>
-    <row r="10" spans="4:43" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="4:43" ht="25.5" x14ac:dyDescent="0.45">
       <c r="D10" s="71"/>
       <c r="E10" s="72"/>
       <c r="F10" s="1"/>
       <c r="G10" s="28"/>
       <c r="H10" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
@@ -7538,7 +8170,7 @@
       <c r="AG10" s="9"/>
       <c r="AH10" s="9"/>
       <c r="AI10" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9"/>
@@ -7549,13 +8181,13 @@
       <c r="AP10" s="30"/>
       <c r="AQ10" s="1"/>
     </row>
-    <row r="11" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="11" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D11" s="71"/>
       <c r="E11" s="72"/>
       <c r="F11" s="1"/>
       <c r="G11" s="28"/>
       <c r="H11" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
@@ -7591,13 +8223,13 @@
       <c r="AP11" s="30"/>
       <c r="AQ11" s="1"/>
     </row>
-    <row r="12" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="12" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D12" s="71"/>
       <c r="E12" s="72"/>
       <c r="F12" s="1"/>
       <c r="G12" s="28"/>
       <c r="H12" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
@@ -7635,13 +8267,13 @@
       <c r="AP12" s="30"/>
       <c r="AQ12" s="1"/>
     </row>
-    <row r="13" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="13" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D13" s="71"/>
       <c r="E13" s="72"/>
       <c r="F13" s="1"/>
       <c r="G13" s="28"/>
       <c r="H13" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
@@ -7679,13 +8311,13 @@
       <c r="AP13" s="30"/>
       <c r="AQ13" s="1"/>
     </row>
-    <row r="14" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="14" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D14" s="71"/>
       <c r="E14" s="72"/>
       <c r="F14" s="1"/>
       <c r="G14" s="28"/>
       <c r="H14" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
@@ -7723,13 +8355,13 @@
       <c r="AP14" s="30"/>
       <c r="AQ14" s="1"/>
     </row>
-    <row r="15" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="15" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D15" s="71"/>
       <c r="E15" s="72"/>
       <c r="F15" s="1"/>
       <c r="G15" s="28"/>
       <c r="H15" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
@@ -7767,13 +8399,13 @@
       <c r="AP15" s="30"/>
       <c r="AQ15" s="1"/>
     </row>
-    <row r="16" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="16" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D16" s="71"/>
       <c r="E16" s="72"/>
       <c r="F16" s="1"/>
       <c r="G16" s="28"/>
       <c r="H16" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
@@ -7811,13 +8443,13 @@
       <c r="AP16" s="30"/>
       <c r="AQ16" s="1"/>
     </row>
-    <row r="17" spans="4:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D17" s="71"/>
       <c r="E17" s="72"/>
       <c r="F17" s="1"/>
       <c r="G17" s="28"/>
       <c r="H17" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
@@ -7855,13 +8487,13 @@
       <c r="AP17" s="30"/>
       <c r="AQ17" s="1"/>
     </row>
-    <row r="18" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D18" s="71"/>
       <c r="E18" s="72"/>
       <c r="F18" s="1"/>
       <c r="G18" s="28"/>
       <c r="H18" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
@@ -7899,13 +8531,13 @@
       <c r="AP18" s="30"/>
       <c r="AQ18" s="1"/>
     </row>
-    <row r="19" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D19" s="71"/>
       <c r="E19" s="72"/>
       <c r="F19" s="1"/>
       <c r="G19" s="28"/>
       <c r="H19" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
@@ -7943,13 +8575,13 @@
       <c r="AP19" s="30"/>
       <c r="AQ19" s="1"/>
     </row>
-    <row r="20" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D20" s="71"/>
       <c r="E20" s="72"/>
       <c r="F20" s="1"/>
       <c r="G20" s="28"/>
       <c r="H20" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
@@ -7987,13 +8619,13 @@
       <c r="AP20" s="30"/>
       <c r="AQ20" s="1"/>
     </row>
-    <row r="21" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D21" s="71"/>
       <c r="E21" s="72"/>
       <c r="F21" s="1"/>
       <c r="G21" s="28"/>
       <c r="H21" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
@@ -8031,13 +8663,13 @@
       <c r="AP21" s="30"/>
       <c r="AQ21" s="1"/>
     </row>
-    <row r="22" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D22" s="71"/>
       <c r="E22" s="72"/>
       <c r="F22" s="1"/>
       <c r="G22" s="28"/>
       <c r="H22" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
@@ -8075,13 +8707,13 @@
       <c r="AP22" s="30"/>
       <c r="AQ22" s="1"/>
     </row>
-    <row r="23" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D23" s="71"/>
       <c r="E23" s="72"/>
       <c r="F23" s="1"/>
       <c r="G23" s="28"/>
       <c r="H23" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
@@ -8117,13 +8749,13 @@
       <c r="AP23" s="30"/>
       <c r="AQ23" s="1"/>
     </row>
-    <row r="24" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D24" s="71"/>
       <c r="E24" s="72"/>
       <c r="F24" s="1"/>
       <c r="G24" s="28"/>
       <c r="H24" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
@@ -8150,7 +8782,7 @@
       <c r="AG24" s="9"/>
       <c r="AH24" s="9"/>
       <c r="AI24" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ24" s="9"/>
       <c r="AK24" s="9"/>
@@ -8161,13 +8793,13 @@
       <c r="AP24" s="30"/>
       <c r="AQ24" s="1"/>
     </row>
-    <row r="25" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D25" s="71"/>
       <c r="E25" s="72"/>
       <c r="F25" s="1"/>
       <c r="G25" s="28"/>
       <c r="H25" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
@@ -8203,13 +8835,13 @@
       <c r="AP25" s="30"/>
       <c r="AQ25" s="1"/>
     </row>
-    <row r="26" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D26" s="71"/>
       <c r="E26" s="72"/>
       <c r="F26" s="1"/>
       <c r="G26" s="28"/>
       <c r="H26" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
@@ -8236,7 +8868,7 @@
       <c r="AG26" s="9"/>
       <c r="AH26" s="9"/>
       <c r="AI26" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AJ26" s="9"/>
       <c r="AK26" s="9"/>
@@ -8247,7 +8879,7 @@
       <c r="AP26" s="30"/>
       <c r="AQ26" s="1"/>
     </row>
-    <row r="27" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D27" s="71"/>
       <c r="E27" s="72"/>
       <c r="F27" s="1"/>
@@ -8278,7 +8910,7 @@
       <c r="AG27" s="9"/>
       <c r="AH27" s="9"/>
       <c r="AI27" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -8289,7 +8921,7 @@
       <c r="AP27" s="30"/>
       <c r="AQ27" s="1"/>
     </row>
-    <row r="28" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D28" s="71"/>
       <c r="E28" s="72"/>
       <c r="F28" s="1"/>
@@ -8320,7 +8952,7 @@
       <c r="AG28" s="9"/>
       <c r="AH28" s="9"/>
       <c r="AI28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
@@ -8331,7 +8963,7 @@
       <c r="AP28" s="30"/>
       <c r="AQ28" s="1"/>
     </row>
-    <row r="29" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D29" s="71"/>
       <c r="E29" s="72"/>
       <c r="F29" s="1"/>
@@ -8371,7 +9003,7 @@
       <c r="AP29" s="30"/>
       <c r="AQ29" s="1"/>
     </row>
-    <row r="30" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D30" s="71"/>
       <c r="E30" s="72"/>
       <c r="F30" s="1"/>
@@ -8402,7 +9034,7 @@
       <c r="AG30" s="9"/>
       <c r="AH30" s="9"/>
       <c r="AI30" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AJ30" s="76"/>
       <c r="AK30" s="76"/>
@@ -8413,7 +9045,7 @@
       <c r="AP30" s="30"/>
       <c r="AQ30" s="1"/>
     </row>
-    <row r="31" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D31" s="71"/>
       <c r="E31" s="72"/>
       <c r="F31" s="1"/>
@@ -8453,7 +9085,7 @@
       <c r="AP31" s="30"/>
       <c r="AQ31" s="1"/>
     </row>
-    <row r="32" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D32" s="71"/>
       <c r="E32" s="72"/>
       <c r="F32" s="1"/>
@@ -8493,7 +9125,7 @@
       <c r="AP32" s="30"/>
       <c r="AQ32" s="1"/>
     </row>
-    <row r="33" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D33" s="71"/>
       <c r="E33" s="72"/>
       <c r="F33" s="1"/>
@@ -8533,7 +9165,7 @@
       <c r="AP33" s="30"/>
       <c r="AQ33" s="1"/>
     </row>
-    <row r="34" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D34" s="73"/>
       <c r="E34" s="74"/>
       <c r="F34" s="1"/>
@@ -8573,7 +9205,7 @@
       <c r="AP34" s="33"/>
       <c r="AQ34" s="1"/>
     </row>
-    <row r="35" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -8613,7 +9245,7 @@
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
     </row>
-    <row r="36" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -8653,7 +9285,7 @@
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
     </row>
-    <row r="37" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -8693,7 +9325,7 @@
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
     </row>
-    <row r="38" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -8733,7 +9365,7 @@
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
     </row>
-    <row r="39" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -8773,7 +9405,7 @@
       <c r="AP39" s="1"/>
       <c r="AQ39" s="1"/>
     </row>
-    <row r="40" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -8813,7 +9445,7 @@
       <c r="AP40" s="1"/>
       <c r="AQ40" s="1"/>
     </row>
-    <row r="41" spans="4:43" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:43" x14ac:dyDescent="0.45">
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -8865,4 +9497,40 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="B3:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>